--- a/multiplefloorsample.xlsx
+++ b/multiplefloorsample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\zenvijay\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9560DB-0456-483E-9FAC-CC55CB748628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Iqbal Asif</author>
     <author>SALMAN PC</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3A3A602D-8A35-4C4B-AD6B-E9482036F755}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Iqbal Asif:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+610 - Single Owner
+611 - Joint Owner
+461 - Zone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -361,6 +395,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+  554 - 2017-2018-&gt;APR-MAR
   227 - 2018-2019-&gt;APR-MAR</t>
         </r>
       </text>
@@ -370,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>ownershiptype</t>
   </si>
@@ -378,9 +413,6 @@
     <t>ownername</t>
   </si>
   <si>
-    <t>parshuram balabhau sontakke</t>
-  </si>
-  <si>
     <t>ownergender</t>
   </si>
   <si>
@@ -390,155 +422,185 @@
     <t>ownerguardianname</t>
   </si>
   <si>
-    <t>balabhau sontakke</t>
-  </si>
-  <si>
     <t>ownermobilenumber</t>
   </si>
   <si>
     <t>owneremailaddress</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>owneraadharno</t>
   </si>
   <si>
     <t>ownerpanno</t>
   </si>
   <si>
+    <t>oldpropertyno</t>
+  </si>
+  <si>
+    <t>propertyaddress</t>
+  </si>
+  <si>
+    <t>Wada</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>roadtype</t>
+  </si>
+  <si>
+    <t>dateofacquisition</t>
+  </si>
+  <si>
+    <t>totalarea</t>
+  </si>
+  <si>
+    <t>flooryear</t>
+  </si>
+  <si>
+    <t>floorfloorno</t>
+  </si>
+  <si>
+    <t>floorconstruction</t>
+  </si>
+  <si>
+    <t>floortype</t>
+  </si>
+  <si>
+    <t>floorarea</t>
+  </si>
+  <si>
+    <t>flooroccupancytype</t>
+  </si>
+  <si>
+    <t>flooroccupiername</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>floorpropertytype</t>
+  </si>
+  <si>
+    <t>floorpropertysubtype</t>
+  </si>
+  <si>
+    <t>rebateapplicable</t>
+  </si>
+  <si>
+    <t>No_</t>
+  </si>
+  <si>
+    <t>zoneapplicable</t>
+  </si>
+  <si>
+    <t>taxcollector</t>
+  </si>
+  <si>
+    <t>Chief Officer</t>
+  </si>
+  <si>
+    <t>financialyear</t>
+  </si>
+  <si>
+    <t>lakshman dhenavde</t>
+  </si>
+  <si>
+    <t>shyam lakshman dhenavde</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>sharad yashwant patil</t>
+  </si>
+  <si>
+    <t>yashwant patil</t>
+  </si>
+  <si>
+    <t>ownerwadataxregister@gmail.com</t>
+  </si>
+  <si>
+    <t>swachatakar1718</t>
+  </si>
+  <si>
+    <t>firetax1718</t>
+  </si>
+  <si>
+    <t>employementguaranteecesstax1718</t>
+  </si>
+  <si>
+    <t>educationcess1718</t>
+  </si>
+  <si>
+    <t>treetax1718</t>
+  </si>
+  <si>
+    <t>consolidatedtax1718</t>
+  </si>
+  <si>
+    <t>watertreatmentandhealthcaretax1718</t>
+  </si>
+  <si>
+    <t>electricitytax1718</t>
+  </si>
+  <si>
+    <t>specialeducationtax1718</t>
+  </si>
+  <si>
+    <t>interest1718</t>
+  </si>
+  <si>
+    <t>treetax1819</t>
+  </si>
+  <si>
+    <t>educationcess1819</t>
+  </si>
+  <si>
+    <t>employementguaranteecesstax1819</t>
+  </si>
+  <si>
+    <t>firetax1819</t>
+  </si>
+  <si>
+    <t>swachatakar1819</t>
+  </si>
+  <si>
+    <t>watertreatmentandhealthcaretax1819</t>
+  </si>
+  <si>
+    <t>electricitytax1819</t>
+  </si>
+  <si>
+    <t>specialeducationtax1819</t>
+  </si>
+  <si>
+    <t>interest1819</t>
+  </si>
+  <si>
+    <t>floordate</t>
+  </si>
+  <si>
     <t>AYOPK2710K</t>
   </si>
   <si>
-    <t>oldpropertyno</t>
-  </si>
-  <si>
-    <t>propertyaddress</t>
-  </si>
-  <si>
-    <t>Wada</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>roadtype</t>
-  </si>
-  <si>
-    <t>dateofacquisition</t>
-  </si>
-  <si>
-    <t>totalarea</t>
-  </si>
-  <si>
-    <t>flooryear</t>
-  </si>
-  <si>
-    <t>floorfloorno</t>
-  </si>
-  <si>
-    <t>floordate</t>
-  </si>
-  <si>
-    <t>floorconstruction</t>
-  </si>
-  <si>
-    <t>floortype</t>
-  </si>
-  <si>
-    <t>floorarea</t>
-  </si>
-  <si>
-    <t>flooroccupancytype</t>
-  </si>
-  <si>
-    <t>flooroccupiername</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>floorpropertytype</t>
-  </si>
-  <si>
-    <t>floorpropertysubtype</t>
-  </si>
-  <si>
-    <t>rebateapplicable</t>
-  </si>
-  <si>
-    <t>No_</t>
-  </si>
-  <si>
-    <t>zoneapplicable</t>
-  </si>
-  <si>
-    <t>taxcollector</t>
-  </si>
-  <si>
-    <t>Chief Officer</t>
-  </si>
-  <si>
-    <t>financialyear</t>
-  </si>
-  <si>
-    <t>consolidatedtax</t>
-  </si>
-  <si>
-    <t>treetax</t>
-  </si>
-  <si>
-    <t>educationcess</t>
-  </si>
-  <si>
-    <t>employementguaranteecesstax</t>
-  </si>
-  <si>
-    <t>firetax</t>
-  </si>
-  <si>
-    <t>swachatakar</t>
-  </si>
-  <si>
-    <t>watertreatmentandhealthcaretax</t>
-  </si>
-  <si>
-    <t>electricitytax</t>
-  </si>
-  <si>
-    <t>specialeducationtax</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>akljdf</t>
-  </si>
-  <si>
-    <t>skljfd</t>
-  </si>
-  <si>
-    <t>ashdjf@kjhfd.com</t>
-  </si>
-  <si>
-    <t>65df6ds5f</t>
+    <t>consolidatedtax1819</t>
+  </si>
+  <si>
+    <t>S. No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,8 +637,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -584,13 +646,21 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -636,31 +706,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,6 +738,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -714,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,9 +824,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,6 +876,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,529 +1069,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="32" max="32" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.5703125" style="4" customWidth="1"/>
+    <col min="43" max="43" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="14" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>47</v>
+      <c r="AP1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>610</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="12">
+        <v>611</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12">
         <v>80</v>
       </c>
-      <c r="E2" s="2">
-        <v>1641</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>92847583782</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="E2" s="12">
+        <v>1638</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="12">
         <v>9876543210</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2">
-        <v>873490834</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="16">
+        <v>209470519541</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="12">
         <v>421303</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="12">
         <v>3071</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="12">
         <v>617</v>
       </c>
-      <c r="P2" s="6">
-        <v>37257</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>200</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="P2" s="18">
+        <v>37347</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>135</v>
+      </c>
+      <c r="R2" s="14">
         <v>38</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="15">
         <v>619</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="19">
         <v>36982</v>
       </c>
-      <c r="U2" s="4">
-        <v>877</v>
-      </c>
-      <c r="V2" s="4">
+      <c r="U2" s="15">
+        <v>876</v>
+      </c>
+      <c r="V2" s="15">
+        <v>8</v>
+      </c>
+      <c r="W2" s="15">
+        <v>135</v>
+      </c>
+      <c r="X2" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>554</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>1214</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="14">
+        <v>607</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="12">
         <v>10</v>
       </c>
-      <c r="W2" s="4">
-        <v>200</v>
-      </c>
-      <c r="X2" s="4">
+      <c r="AW2" s="12">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="14">
+        <v>38</v>
+      </c>
+      <c r="S3" s="15">
+        <v>620</v>
+      </c>
+      <c r="T3" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U3" s="15">
+        <v>876</v>
+      </c>
+      <c r="V3" s="15">
+        <v>8</v>
+      </c>
+      <c r="W3" s="15">
+        <v>170</v>
+      </c>
+      <c r="X3" s="15">
         <v>1629</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="4">
+      <c r="Y3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="15">
         <v>1</v>
       </c>
-      <c r="AA2" s="5">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>227</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>300</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
+      <c r="AA3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
     </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="1">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="14">
+        <v>38</v>
+      </c>
+      <c r="S4" s="15">
+        <v>621</v>
+      </c>
+      <c r="T4" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U4" s="15">
+        <v>876</v>
+      </c>
+      <c r="V4" s="15">
+        <v>8</v>
+      </c>
+      <c r="W4" s="15">
+        <v>132</v>
+      </c>
+      <c r="X4" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="R3" s="9">
-        <v>38</v>
-      </c>
-      <c r="S3" s="8">
-        <v>620</v>
-      </c>
-      <c r="T3" s="10">
-        <v>37036</v>
-      </c>
-      <c r="U3" s="8">
-        <v>876</v>
-      </c>
-      <c r="V3" s="8">
-        <v>9</v>
-      </c>
-      <c r="W3" s="8">
-        <v>200</v>
-      </c>
-      <c r="X3" s="8">
-        <v>1630</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>6</v>
-      </c>
+      <c r="AA4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
     </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="9">
-        <v>38</v>
-      </c>
-      <c r="S4" s="8">
-        <v>620</v>
-      </c>
-      <c r="T4" s="10">
-        <v>37037</v>
-      </c>
-      <c r="U4" s="8">
-        <v>876</v>
-      </c>
-      <c r="V4" s="8">
-        <v>9</v>
-      </c>
-      <c r="W4" s="8">
-        <v>200</v>
-      </c>
-      <c r="X4" s="8">
-        <v>1630</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>610</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="12">
+        <v>611</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12">
         <v>80</v>
       </c>
-      <c r="E5" s="1">
-        <v>1641</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1">
-        <v>365653435453</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1">
-        <v>35535354</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5665656656</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="E5" s="12">
+        <v>1638</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="12">
+        <v>9876543210</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="16">
+        <v>209470519541</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12">
         <v>421303</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="12">
         <v>3071</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="12">
         <v>617</v>
       </c>
-      <c r="P5" s="13">
-        <v>37257</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>200</v>
-      </c>
-      <c r="R5" s="9">
+      <c r="P5" s="18">
+        <v>37347</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>190</v>
+      </c>
+      <c r="R5" s="14">
         <v>38</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="15">
+        <v>619</v>
+      </c>
+      <c r="T5" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U5" s="15">
+        <v>876</v>
+      </c>
+      <c r="V5" s="15">
+        <v>8</v>
+      </c>
+      <c r="W5" s="15">
+        <v>190</v>
+      </c>
+      <c r="X5" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>554</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>1710</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>20</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>20</v>
+      </c>
+      <c r="AN5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="14">
+        <v>855</v>
+      </c>
+      <c r="AQ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>10</v>
+      </c>
+      <c r="AW5" s="12">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="14">
+        <v>38</v>
+      </c>
+      <c r="S6" s="15">
         <v>620</v>
       </c>
-      <c r="T5" s="10">
-        <v>37038</v>
-      </c>
-      <c r="U5" s="8">
+      <c r="T6" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U6" s="15">
         <v>876</v>
       </c>
-      <c r="V5" s="8">
-        <v>9</v>
-      </c>
-      <c r="W5" s="8">
-        <v>200</v>
-      </c>
-      <c r="X5" s="8">
-        <v>1630</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="V6" s="15">
+        <v>8</v>
+      </c>
+      <c r="W6" s="15">
+        <v>215</v>
+      </c>
+      <c r="X6" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="14">
+        <v>38</v>
+      </c>
+      <c r="S7" s="15">
+        <v>621</v>
+      </c>
+      <c r="T7" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U7" s="15">
+        <v>876</v>
+      </c>
+      <c r="V7" s="15">
+        <v>7</v>
+      </c>
+      <c r="W7" s="15">
+        <v>550</v>
+      </c>
+      <c r="X7" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="14">
+        <v>38</v>
+      </c>
+      <c r="S8" s="15">
+        <v>622</v>
+      </c>
+      <c r="T8" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U8" s="15">
+        <v>876</v>
+      </c>
+      <c r="V8" s="15">
+        <v>7</v>
+      </c>
+      <c r="W8" s="15">
+        <v>494</v>
+      </c>
+      <c r="X8" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
+        <v>611</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AE5" s="1">
-        <v>227</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>200</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
+      <c r="D9" s="12">
+        <v>80</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1638</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12">
+        <v>9876543210</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="16">
+        <v>209470519541</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="12">
+        <v>421303</v>
+      </c>
+      <c r="N9" s="12">
+        <v>3071</v>
+      </c>
+      <c r="O9" s="12">
+        <v>617</v>
+      </c>
+      <c r="P9" s="18">
+        <v>37347</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>413</v>
+      </c>
+      <c r="R9" s="14">
+        <v>38</v>
+      </c>
+      <c r="S9" s="15">
+        <v>621</v>
+      </c>
+      <c r="T9" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U9" s="15">
+        <v>876</v>
+      </c>
+      <c r="V9" s="15">
+        <v>7</v>
+      </c>
+      <c r="W9" s="15">
+        <v>143</v>
+      </c>
+      <c r="X9" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>554</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>1858</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>40</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>40</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>929</v>
+      </c>
+      <c r="AQ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>20</v>
+      </c>
+      <c r="AW9" s="12">
+        <v>20</v>
+      </c>
+      <c r="AX9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14">
+        <v>38</v>
+      </c>
+      <c r="S10" s="15">
+        <v>624</v>
+      </c>
+      <c r="T10" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U10" s="15">
+        <v>876</v>
+      </c>
+      <c r="V10" s="15">
+        <v>7</v>
+      </c>
+      <c r="W10" s="15">
+        <v>550</v>
+      </c>
+      <c r="X10" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="14">
+        <v>38</v>
+      </c>
+      <c r="S11" s="15">
+        <v>625</v>
+      </c>
+      <c r="T11" s="19">
+        <v>36982</v>
+      </c>
+      <c r="U11" s="15">
+        <v>876</v>
+      </c>
+      <c r="V11" s="15">
+        <v>7</v>
+      </c>
+      <c r="W11" s="15">
+        <v>535</v>
+      </c>
+      <c r="X11" s="15">
+        <v>1629</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="ownerwadataxregister@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
